--- a/tests/__snapshots__/complex_col.xlsx
+++ b/tests/__snapshots__/complex_col.xlsx
@@ -466,28 +466,28 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
-      <c r="B8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="B8" s="5"/>
       <c r="D8" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B7:B8"/>
     <mergeCell ref="D1:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/__snapshots__/complex_col.xlsx
+++ b/tests/__snapshots__/complex_col.xlsx
@@ -428,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -466,29 +466,39 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3"/>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3"/>
+      <c r="B9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3"/>
-      <c r="B8" s="5"/>
-      <c r="D8" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3"/>
+      <c r="B10" s="5"/>
+      <c r="D10" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D1:D8"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D1:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
